--- a/vacancies_per_day/2022-11-04.xlsx
+++ b/vacancies_per_day/2022-11-04.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S780"/>
+  <dimension ref="A1:S781"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49103,6 +49103,75 @@
         <v>0</v>
       </c>
     </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>1</v>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>71957345</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>Копирайтер (SMM)/PR-менеджер</t>
+        </is>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E781" t="inlineStr">
+        <is>
+          <t>Москва, Щёлковское шоссе, 5с1</t>
+        </is>
+      </c>
+      <c r="F781" t="inlineStr">
+        <is>
+          <t>X2media</t>
+        </is>
+      </c>
+      <c r="G781" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://hh.ru/vacancy/71957345 </t>
+        </is>
+      </c>
+      <c r="H781" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://api.hh.ru/vacancies/71957345?host=hh.ru </t>
+        </is>
+      </c>
+      <c r="I781" t="inlineStr">
+        <is>
+          <t>2022-11-04T20:38:19+0300</t>
+        </is>
+      </c>
+      <c r="J781" t="inlineStr">
+        <is>
+          <t>2022-11-04T20:38:19+0300</t>
+        </is>
+      </c>
+      <c r="K781" t="n">
+        <v>60000</v>
+      </c>
+      <c r="L781" t="n">
+        <v>80000</v>
+      </c>
+      <c r="M781" t="inlineStr">
+        <is>
+          <t>Умение живо и интересно писать о сложном. Профильное высшее образование (филфак, журфак). Умение собирать информацию, готовить контент. Умение работать в...</t>
+        </is>
+      </c>
+      <c r="N781" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Написание текстов b2b, промышленная тематика. Smm. Подготовка презентаций. Режиссура видео роликов. Контент для сайтов. Контент для каталогов. </t>
+        </is>
+      </c>
+      <c r="S781" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
